--- a/Rural Residential_tot_GW_USE_UseCode_Description.xlsx
+++ b/Rural Residential_tot_GW_USE_UseCode_Description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>GSA_Jurisdiction_Prelim</t>
   </si>
@@ -67,189 +67,186 @@
     <t>Rural res sfd w/granny unit</t>
   </si>
   <si>
+    <t>5-10 residential units/2+ structures</t>
+  </si>
+  <si>
+    <t>Two sfd on single parcel</t>
+  </si>
+  <si>
     <t>Sfd w/granny unit</t>
   </si>
   <si>
-    <t>5-10 residential units/2+ structures</t>
-  </si>
-  <si>
-    <t>Two sfd on single parcel</t>
-  </si>
-  <si>
     <t>21-40 units</t>
   </si>
   <si>
+    <t>Over 100 units</t>
+  </si>
+  <si>
     <t>Pasture w/residence</t>
   </si>
   <si>
-    <t>Over 100 units</t>
+    <t>Pasture with residence</t>
+  </si>
+  <si>
+    <t>Rural residential w/misc residential imp</t>
+  </si>
+  <si>
+    <t>4 units/2 or more structures</t>
+  </si>
+  <si>
+    <t>Irrigated vineyard w/residence</t>
+  </si>
+  <si>
+    <t>Dairy w/residence</t>
+  </si>
+  <si>
+    <t>11-20 residential unit/2+ structures</t>
+  </si>
+  <si>
+    <t>41-100 units</t>
   </si>
   <si>
     <t>Manufactured home park</t>
   </si>
   <si>
-    <t>4 units/2 or more structures</t>
-  </si>
-  <si>
-    <t>Pasture with residence</t>
-  </si>
-  <si>
-    <t>Rural residential w/misc residential imp</t>
-  </si>
-  <si>
-    <t>Irrigated vineyard w/residence</t>
-  </si>
-  <si>
-    <t>Dairy w/residence</t>
-  </si>
-  <si>
-    <t>11-20 residential unit/2+ structures</t>
-  </si>
-  <si>
-    <t>41-100 units</t>
+    <t>Rural res w/misc res imp</t>
   </si>
   <si>
     <t>One duplex (one structure)</t>
   </si>
   <si>
+    <t>3 units/2 or more structures</t>
+  </si>
+  <si>
+    <t>Manufactured home on urban lot</t>
+  </si>
+  <si>
+    <t>Field crops with residence</t>
+  </si>
+  <si>
+    <t>Sfd non-conforming use</t>
+  </si>
+  <si>
+    <t>Non-irrigated vineyard w/residence</t>
+  </si>
+  <si>
+    <t>11-20 residential unit/1 structure</t>
+  </si>
+  <si>
+    <t>Motel/50 units or less w/shops</t>
+  </si>
+  <si>
+    <t>Motel/50 units or less w/kitchen</t>
+  </si>
+  <si>
+    <t>5-10 res units/2+ structures</t>
+  </si>
+  <si>
+    <t>5-10 residential units/1 structure</t>
+  </si>
+  <si>
+    <t>Chicken ranch w/residence</t>
+  </si>
+  <si>
+    <t>Rural res/secondary use</t>
+  </si>
+  <si>
+    <t>Detached unit in a pud</t>
+  </si>
+  <si>
+    <t>Sfd secondary use</t>
+  </si>
+  <si>
+    <t>11-20 res unit/2+ structures</t>
+  </si>
+  <si>
+    <t>Irrigated pasture w/residence</t>
+  </si>
+  <si>
+    <t>Irr vineyd/premium w/manufactured home</t>
+  </si>
+  <si>
+    <t>Trailer park (resort type)</t>
+  </si>
+  <si>
+    <t>Enforceably restricted apts</t>
+  </si>
+  <si>
+    <t>Pasture w/manufactured home</t>
+  </si>
+  <si>
+    <t>Horse ranch w/residence</t>
+  </si>
+  <si>
+    <t>Bed &amp; breakfast inn</t>
+  </si>
+  <si>
+    <t>Non-irrigated vineyard w/res</t>
+  </si>
+  <si>
+    <t>Field crops w/residence</t>
+  </si>
+  <si>
+    <t>Pasture with manufactured home</t>
+  </si>
+  <si>
+    <t>5-10 res units/1 structure</t>
+  </si>
+  <si>
+    <t>Hardwoods &amp; chaparral w/residence</t>
+  </si>
+  <si>
+    <t>Hardwoods and chaparral w/res</t>
+  </si>
+  <si>
+    <t>Irrigated vineyard w/manufactured home</t>
+  </si>
+  <si>
+    <t>Horse ranch w/res</t>
+  </si>
+  <si>
+    <t>Non-irrigated orchard w/residence</t>
+  </si>
+  <si>
+    <t>Non-irr vineyd/varietals w/residence</t>
+  </si>
+  <si>
+    <t>Irrigated orchard w/residence</t>
+  </si>
+  <si>
+    <t>Horse ranch w/2 or more residences</t>
+  </si>
+  <si>
+    <t>Non-irrigated orchard w/res</t>
+  </si>
+  <si>
+    <t>Common area w/o structures</t>
+  </si>
+  <si>
+    <t>Non-irr vineyd/varietals w/res</t>
+  </si>
+  <si>
+    <t>Single fourplex</t>
+  </si>
+  <si>
+    <t>Horse ranch w/2 or more res</t>
+  </si>
+  <si>
     <t>Enforceably restricted dwelling</t>
   </si>
   <si>
-    <t>3 units/2 or more structures</t>
-  </si>
-  <si>
-    <t>Rural res w/misc res imp</t>
-  </si>
-  <si>
-    <t>Manufactured home on urban lot</t>
-  </si>
-  <si>
-    <t>Field crops with residence</t>
-  </si>
-  <si>
-    <t>Non-irrigated vineyard w/residence</t>
-  </si>
-  <si>
-    <t>Sfd non-conforming use</t>
-  </si>
-  <si>
-    <t>11-20 residential unit/1 structure</t>
-  </si>
-  <si>
-    <t>Motel/50 units or less w/kitchen</t>
-  </si>
-  <si>
-    <t>Motel/50 units or less w/shops</t>
-  </si>
-  <si>
-    <t>5-10 residential units/1 structure</t>
-  </si>
-  <si>
-    <t>Manufactured home park w/overnite facilities</t>
-  </si>
-  <si>
-    <t>5-10 res units/2+ structures</t>
-  </si>
-  <si>
-    <t>Enforceably restricted apts</t>
-  </si>
-  <si>
-    <t>Chicken ranch w/residence</t>
-  </si>
-  <si>
-    <t>Rural res/secondary use</t>
-  </si>
-  <si>
-    <t>Detached unit in a pud</t>
-  </si>
-  <si>
-    <t>Trailer park (resort type)</t>
-  </si>
-  <si>
-    <t>Sfd secondary use</t>
-  </si>
-  <si>
-    <t>11-20 res unit/2+ structures</t>
-  </si>
-  <si>
-    <t>Irrigated pasture w/residence</t>
-  </si>
-  <si>
-    <t>Irr vineyd/premium w/manufactured home</t>
-  </si>
-  <si>
-    <t>Horse ranch w/residence</t>
-  </si>
-  <si>
-    <t>Pasture w/manufactured home</t>
-  </si>
-  <si>
-    <t>Non-irrigated vineyard w/res</t>
-  </si>
-  <si>
-    <t>Bed &amp; breakfast inn</t>
-  </si>
-  <si>
-    <t>Field crops w/residence</t>
-  </si>
-  <si>
-    <t>Pasture with manufactured home</t>
-  </si>
-  <si>
-    <t>5-10 res units/1 structure</t>
-  </si>
-  <si>
-    <t>Non-irr vineyd/varietals w/residence</t>
-  </si>
-  <si>
-    <t>Non-irrigated orchard w/residence</t>
-  </si>
-  <si>
-    <t>Irrigated orchard w/residence</t>
-  </si>
-  <si>
-    <t>Hardwoods &amp; chaparral w/residence</t>
-  </si>
-  <si>
-    <t>Hardwoods and chaparral w/res</t>
-  </si>
-  <si>
-    <t>Irrigated vineyard w/manufactured home</t>
-  </si>
-  <si>
-    <t>Horse ranch w/res</t>
-  </si>
-  <si>
-    <t>Non-irr vineyd/varietals w/res</t>
-  </si>
-  <si>
-    <t>Common area w/o structures</t>
-  </si>
-  <si>
-    <t>Non-irrigated orchard w/res</t>
-  </si>
-  <si>
-    <t>Horse ranch w/2 or more residences</t>
-  </si>
-  <si>
-    <t>Single fourplex</t>
-  </si>
-  <si>
-    <t>Horse ranch w/2 or more res</t>
+    <t>Duet</t>
   </si>
   <si>
     <t>Single triplex 3 units/1 structure</t>
   </si>
   <si>
-    <t>Duet</t>
+    <t>Rural res/vacant homesite</t>
   </si>
   <si>
     <t>School district property</t>
   </si>
   <si>
-    <t>Taxable manufactured home/rented site</t>
-  </si>
-  <si>
     <t>Land converting to vineyard/orchard w/residence</t>
   </si>
   <si>
@@ -265,19 +262,16 @@
     <t>Horse ranch w/manufacturedhome</t>
   </si>
   <si>
+    <t>Horse ranch</t>
+  </si>
+  <si>
     <t>Dairy w/manufactured home</t>
   </si>
   <si>
     <t>Condominium unit</t>
   </si>
   <si>
-    <t>Common area without structures</t>
-  </si>
-  <si>
     <t>Chicken ranch w/manufactured home</t>
-  </si>
-  <si>
-    <t>Attached unit</t>
   </si>
   <si>
     <t>Wildcat subdivision lot</t>
@@ -638,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1606.5</v>
+        <v>1596</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1606.5</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -700,13 +694,13 @@
         <v>24.5</v>
       </c>
       <c r="C5">
-        <v>883.5</v>
+        <v>844.5</v>
       </c>
       <c r="D5">
-        <v>250.5</v>
+        <v>149</v>
       </c>
       <c r="E5">
-        <v>1158.5</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -720,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>375.75</v>
+        <v>371.25</v>
       </c>
       <c r="E6">
-        <v>700.75</v>
+        <v>696.25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -734,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -802,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>101.5</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>101.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -839,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>53.25</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>77.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -850,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>49.5</v>
+        <v>62.5</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>66</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -867,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>65</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -884,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>47.25</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="E16">
-        <v>57.75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -938,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -952,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -969,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -986,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>32.5</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1003,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="E23">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1020,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>26.5</v>
+        <v>14.5</v>
       </c>
       <c r="D24">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>36.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1037,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>29.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1074,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1088,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="C28">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.75</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1105,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>19.5</v>
-      </c>
-      <c r="E29">
-        <v>20.5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1128,10 +1122,10 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E30">
-        <v>20.25</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1139,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="E31">
-        <v>19.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1156,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1173,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>13.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1193,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1210,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1227,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -1261,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -1292,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1312,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1329,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1343,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1363,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1380,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D45">
         <v>0.5</v>
       </c>
       <c r="E45">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1394,13 +1388,13 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -1411,13 +1405,13 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -1451,10 +1445,10 @@
         <v>4.5</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1462,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D50">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1482,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1499,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1516,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1530,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1550,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E55">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1564,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1587,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1615,13 +1609,13 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -1635,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -1669,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -1686,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1700,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B64">
+        <v>0.5</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>1.5</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0.5</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1720,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D65">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>1.5</v>
@@ -1737,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
         <v>1.5</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
       </c>
       <c r="E66">
         <v>1.5</v>
@@ -1751,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1768,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C68">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E68">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1802,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1921,10 +1915,10 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1955,10 +1949,10 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2009,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0.5</v>
@@ -2032,40 +2026,6 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0.5</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0.5</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
         <v>0.5</v>
       </c>
     </row>
